--- a/data/trans_dic/P56$auxiliar-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P56$auxiliar-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04123693970893732</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1556778203225779</v>
+        <v>0.1556778203225778</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02664810245604019</v>
@@ -715,31 +715,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03043832843889333</v>
+        <v>0.03199999168887794</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02210532307109769</v>
+        <v>0.02200815546794015</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09196884778908845</v>
+        <v>0.09595477501863331</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01540398095244909</v>
+        <v>0.01533360766229728</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08950862633576741</v>
+        <v>0.08481151642778881</v>
       </c>
     </row>
     <row r="6">
@@ -751,37 +751,37 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.2674599067041783</v>
+        <v>0.2173892033312814</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1963082871429649</v>
+        <v>0.2116931774715157</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1881998358753197</v>
+        <v>0.2008306974399441</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.214689316581519</v>
+        <v>0.2148843517085108</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1846191357619898</v>
+        <v>0.1851781420821402</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2041028907095315</v>
+        <v>0.160651302959879</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2263265904789323</v>
+        <v>0.2326857417969053</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.131937090932342</v>
+        <v>0.1234804221628895</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1439199684342007</v>
+        <v>0.1502383571010674</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.167448765834212</v>
+        <v>0.1499641648680507</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1913325423591556</v>
+        <v>0.1913820186910645</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.06386551229974319</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.267818936533439</v>
+        <v>0.2678189365334389</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.07824916631160515</v>
@@ -817,7 +817,7 @@
         <v>0.07614411953808778</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3057783095871008</v>
+        <v>0.3057783095871009</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05232322026277153</v>
@@ -829,7 +829,7 @@
         <v>0.0726960158459907</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2957448629477399</v>
+        <v>0.2957448629477398</v>
       </c>
     </row>
     <row r="8">
@@ -841,37 +841,37 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.0584605083797009</v>
+        <v>0.06093569900320291</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01606232850874594</v>
+        <v>0.01625311057125834</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1948955625182266</v>
+        <v>0.1955497998708609</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03102683557405039</v>
+        <v>0.03052659020642284</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1709750723157752</v>
+        <v>0.1699198938403269</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02919628063911052</v>
+        <v>0.03707072160051378</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2600494513133629</v>
+        <v>0.2626156920593371</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02039497934123856</v>
+        <v>0.01982565557201967</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1589005299456611</v>
+        <v>0.1572779965218319</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03858927440108697</v>
+        <v>0.04117308499251809</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2533323632347728</v>
+        <v>0.2527122060262527</v>
       </c>
     </row>
     <row r="9">
@@ -883,37 +883,37 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.2437908501640021</v>
+        <v>0.2632183349613227</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1612818480964297</v>
+        <v>0.1506839609553154</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3583651386126598</v>
+        <v>0.3608585473897022</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1681806556008503</v>
+        <v>0.1677961586821407</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3087025821569143</v>
+        <v>0.3104534812772964</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1443562671200512</v>
+        <v>0.1435904937440747</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3490580189893663</v>
+        <v>0.3547804202627461</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1139624954741256</v>
+        <v>0.1065702024227698</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2705556926575675</v>
+        <v>0.2660393431351301</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.122884062904911</v>
+        <v>0.1236488492433919</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3345479096020899</v>
+        <v>0.3354975022095386</v>
       </c>
     </row>
     <row r="10">
@@ -973,37 +973,37 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.05646774935398383</v>
+        <v>0.04852351173616781</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02198939777530906</v>
+        <v>0.02184255247314981</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1562361538393017</v>
+        <v>0.1583329856122781</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02377897523180993</v>
+        <v>0.02405920170849666</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1467034755194083</v>
+        <v>0.1451355415317845</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03367000237500649</v>
+        <v>0.03061889658127953</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2366701653125459</v>
+        <v>0.233727929998526</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01651238785232563</v>
+        <v>0.016195650834365</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1321976110607689</v>
+        <v>0.1330239606952352</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03762872436395551</v>
+        <v>0.03666172842255344</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2252900549994626</v>
+        <v>0.2239764350763035</v>
       </c>
     </row>
     <row r="12">
@@ -1015,37 +1015,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.2129467556805692</v>
+        <v>0.2026088659511811</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1205537243169123</v>
+        <v>0.1303925030573097</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2869673537276235</v>
+        <v>0.2885784679655694</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1382159702541773</v>
+        <v>0.13872497416496</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2659074905461713</v>
+        <v>0.2581401485362781</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1246315398958958</v>
+        <v>0.1221962467230234</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3166590984155079</v>
+        <v>0.3125354102616713</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09026577121047114</v>
+        <v>0.0973460976097769</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2253073350252393</v>
+        <v>0.2306721762522151</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1062697395570246</v>
+        <v>0.1028609228853934</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.29097976522133</v>
+        <v>0.2957699644937401</v>
       </c>
     </row>
     <row r="13">
@@ -1321,31 +1321,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>943</v>
+        <v>991</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5469</v>
+        <v>5706</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>8096</v>
+        <v>7671</v>
       </c>
     </row>
     <row r="7">
@@ -1357,37 +1357,37 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>5731</v>
+        <v>4658</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4142</v>
+        <v>4466</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5831</v>
+        <v>6222</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4738</v>
+        <v>4742</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7779</v>
+        <v>7802</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8405</v>
+        <v>6616</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13458</v>
+        <v>13836</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4609</v>
+        <v>4314</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9148</v>
+        <v>9550</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>10429</v>
+        <v>9340</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17305</v>
+        <v>17309</v>
       </c>
     </row>
     <row r="8">
@@ -1491,37 +1491,37 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>3337</v>
+        <v>3478</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15123</v>
+        <v>15173</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2218</v>
+        <v>2182</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>27888</v>
+        <v>27716</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3813</v>
+        <v>4842</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>56162</v>
+        <v>56716</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2180</v>
+        <v>2119</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>34988</v>
+        <v>34630</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>7008</v>
+        <v>7477</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>74369</v>
+        <v>74186</v>
       </c>
     </row>
     <row r="11">
@@ -1533,37 +1533,37 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>13915</v>
+        <v>15023</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8225</v>
+        <v>7685</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27807</v>
+        <v>28000</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12021</v>
+        <v>11993</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>50352</v>
+        <v>50638</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18854</v>
+        <v>18754</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>75385</v>
+        <v>76621</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12182</v>
+        <v>11391</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>59573</v>
+        <v>58578</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>22316</v>
+        <v>22455</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>98210</v>
+        <v>98489</v>
       </c>
     </row>
     <row r="12">
@@ -1667,37 +1667,37 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>4433</v>
+        <v>3809</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16963</v>
+        <v>17191</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2224</v>
+        <v>2251</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>30110</v>
+        <v>29788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5784</v>
+        <v>5260</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>65186</v>
+        <v>64375</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2342</v>
+        <v>2297</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>37511</v>
+        <v>37746</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>9177</v>
+        <v>8941</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>86513</v>
+        <v>86008</v>
       </c>
     </row>
     <row r="15">
@@ -1709,37 +1709,37 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>16717</v>
+        <v>15906</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8692</v>
+        <v>9401</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31158</v>
+        <v>31333</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12929</v>
+        <v>12977</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>54576</v>
+        <v>52982</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21410</v>
+        <v>20992</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>87217</v>
+        <v>86081</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12802</v>
+        <v>13806</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>63931</v>
+        <v>65453</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>25918</v>
+        <v>25086</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>111738</v>
+        <v>113577</v>
       </c>
     </row>
     <row r="16">
